--- a/build/Desktop_Qt_6_7_2_MinGW_64_bit-Debug/park.xlsx
+++ b/build/Desktop_Qt_6_7_2_MinGW_64_bit-Debug/park.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\application\QT\park2\build\Desktop_Qt_6_7_2_MinGW_64_bit-Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00B9437-2562-443F-BD7B-BCB253452E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA781EF-38A3-4D2A-A448-CEE656C5D772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,229 +25,369 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t>青EF4JLEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏DH6YCX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渝XPFS6H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕HZP6WPO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皖HC1LBY9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙6DX5470</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云2T1KDZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>港K002HJB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京QPJM6Q1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沪QM22979</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晋ZO27PG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄂J89FEI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豫AJ6ZZA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏WT1LAW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙S9F133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粤23EST1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渝THK6COU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉Y68625G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皖YAXSHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晋7GJTW81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皖NXA5EY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄂IDFD0L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉VTBJ9ZU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄂ES1JGZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云QAGCRJV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粤RIQBEQU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渝ACS3IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>澳2MJBM0K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云D7S8PG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皖2VA4TDK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湘BDQE30E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁EHR59B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冀SOQDFHJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琼299TH9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湘LBGCSDZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豫3JRP5S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>津DLN3NRF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京AOW0WUF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云F5ECYL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂M8DR14M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辽UNSH0YU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘MM4U6FD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕37H5V5K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘L144NQZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台3553SFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙1WIHZWR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕25THBT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘NWK8GE6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁OAMD51P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青1R1LHU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁5QIYZFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕V21BKJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沪FW4E08T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙1595SG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏LZ6KG0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁R556S5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+  <si>
+    <t>青413837</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉EQ8N2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙5CVTXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙VK5WHY3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赣SY7AWL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港P9R9I7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琼R2DZ7C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青4ETH1O9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽EICQE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台0YC6PY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽4D3SW3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂UJGVDJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琼2O89KO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琼BMRXJC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽9TYU4J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀80K2K1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京1HGXUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙2MF7VC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪OMFGC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉X60MLX4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁1UW23SF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁KNINS5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皖HFWYLZ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘E40VUW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀KKR87D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云EO7SGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉2ELZ0Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂NCNQM09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新K1QUPGD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘32PS6O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏FT1YZWK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂1XV0IW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闽YJJMYW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闽CU1Z6LM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙0KBFHH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵9ARQVJM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琼QXF6C4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云CTR78WQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂TMPK6BU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂EMFV8F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫DSZ0I8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏RXUM1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闽V6WIH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂BD28AY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琼8MWJWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂60TU5K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琼B2Q1FQW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川QSTU6KM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀DN4H73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂7DXBIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京4QQ3PIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪DK0MLUZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀635KIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕0SJF6QB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀SWTNGI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕BXSR3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青ROJPJ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川S7DJ1X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉HOBSCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渝TLIV0NR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋D8RCCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云8VRJXR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘QIBG0V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙LC9J22I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂UDW608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀GSBMH8E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽1ESVG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕EQP2VD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵SDNVHSN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋2JURZ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏301BJU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赣CF8GGMJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳Y354PVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫YL3VZWZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新UT56YL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉TFPQOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉WG15HQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘6P48J6S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳RUOUUAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙Y15G1N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港8DKJQP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青IVXC9X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂37WM4D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁3X8MEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑ZT51F7X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渝OV4ZOJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京5Q9N7S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赣EV7X3IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤6NRY17L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闽D1YML51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闽5V7NID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A57"/>
+  <dimension ref="A2:A92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -586,282 +726,457 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/build/Desktop_Qt_6_7_2_MinGW_64_bit-Debug/park.xlsx
+++ b/build/Desktop_Qt_6_7_2_MinGW_64_bit-Debug/park.xlsx
@@ -1,50 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\application\QT\park2\build\Desktop_Qt_6_7_2_MinGW_64_bit-Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89356202-3378-407F-9E7F-4ECCC1302A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA40D939-E123-4D95-9A39-23F3A0C1679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49110" yWindow="4110" windowWidth="19125" windowHeight="11145" xr2:uid="{6A5739CD-7407-4696-A03D-3E21E7090BA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>豫JDBEVA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>津JDGB9S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琼6W0I6L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏H83DDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青WIWYX8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>停车场状态</t>
   </si>
@@ -53,15 +43,12 @@
   </si>
   <si>
     <t>停车场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等候区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>停车时间</t>
@@ -71,32 +58,61 @@
   </si>
   <si>
     <t>花费</t>
+  </si>
+  <si>
+    <t>津7CTNHY</t>
+  </si>
+  <si>
+    <t>甘JCV8X6</t>
+  </si>
+  <si>
+    <t>陕IFB233</t>
+  </si>
+  <si>
+    <t>辽Q9OHYC</t>
+  </si>
+  <si>
+    <t>澳O5QBMG</t>
+  </si>
+  <si>
+    <t>豫8GYDJT</t>
+  </si>
+  <si>
+    <t>津GN0MXS</t>
+  </si>
+  <si>
+    <t>皖DEAPDW</t>
+  </si>
+  <si>
+    <t>琼XXSJE3</t>
+  </si>
+  <si>
+    <t>贵EM2SK4</t>
+  </si>
+  <si>
+    <t>赣7777GE</t>
+  </si>
+  <si>
+    <t>台TRXQOJ</t>
+  </si>
+  <si>
+    <t>浙5RJZ60</t>
+  </si>
+  <si>
+    <t>陕D5FFZ2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,6 +120,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -173,27 +197,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -202,13 +226,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -229,7 +259,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -245,7 +275,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -257,7 +287,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -274,7 +304,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -304,12 +334,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -339,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,131 +554,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDFC1E2-382C-4139-82E8-74A20E534046}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.71421296296296299</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.71430555555555553</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.91189814814814818</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.91195601851851849</v>
+      </c>
+      <c r="D6" s="11">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:J2"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A4:D4"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>